--- a/rails_post_tool/bin/data/EXCEL_LIST.xlsx
+++ b/rails_post_tool/bin/data/EXCEL_LIST.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Sunbee\web\rails_post_tool\bin\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\refs\rails_game_web\rails_post_tool\bin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="99">
   <si>
     <t>string</t>
   </si>
@@ -315,13 +315,21 @@
   </si>
   <si>
     <t>#bot data 용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATISTICS_INSTANCES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATISTICS_NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -757,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1329,6 +1337,17 @@
         <v>91</v>
       </c>
     </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/rails_post_tool/bin/data/EXCEL_LIST.xlsx
+++ b/rails_post_tool/bin/data/EXCEL_LIST.xlsx
@@ -252,9 +252,6 @@
     <t xml:space="preserve">QUEST_SCHEDULE_ID </t>
   </si>
   <si>
-    <t>COUPON</t>
-  </si>
-  <si>
     <t>COUPON_INDEX</t>
   </si>
   <si>
@@ -318,11 +315,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STATISTICS_INSTANCES</t>
+    <t>STATISTICS_NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STATISTICS_NO</t>
+    <t>STATISTICS_INSTANCE</t>
+  </si>
+  <si>
+    <t>COUPON_INSTANCE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -784,10 +784,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -834,7 +834,7 @@
         <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -870,7 +870,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -884,7 +884,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -898,7 +898,7 @@
         <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -934,7 +934,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1240,10 +1240,10 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" t="s">
         <v>94</v>
-      </c>
-      <c r="C41" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1251,10 +1251,10 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" t="s">
         <v>76</v>
-      </c>
-      <c r="C42" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1262,10 +1262,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" t="s">
         <v>78</v>
-      </c>
-      <c r="C43" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1273,10 +1273,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" t="s">
         <v>80</v>
-      </c>
-      <c r="C44" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1284,10 +1284,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" t="s">
         <v>82</v>
-      </c>
-      <c r="C45" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1295,10 +1295,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" t="s">
         <v>84</v>
-      </c>
-      <c r="C46" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1306,10 +1306,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" t="s">
         <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1317,13 +1317,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" t="s">
         <v>88</v>
       </c>
-      <c r="C48" t="s">
-        <v>89</v>
-      </c>
       <c r="D48" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1331,10 +1331,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" t="s">
         <v>90</v>
-      </c>
-      <c r="C49" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1345,7 +1345,7 @@
         <v>97</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
